--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il18-Il18rap.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il18-Il18rap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +516,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.926847333333333</v>
+        <v>6.602185666666666</v>
       </c>
       <c r="H2">
-        <v>5.780542</v>
+        <v>19.806557</v>
       </c>
       <c r="I2">
-        <v>0.1758475956799574</v>
+        <v>0.7981118653323431</v>
       </c>
       <c r="J2">
-        <v>0.1758475956799574</v>
+        <v>0.7981118653323431</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,60 +549,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>26.663152</v>
+        <v>0.04562766666666667</v>
       </c>
       <c r="N2">
-        <v>79.989456</v>
+        <v>0.136883</v>
       </c>
       <c r="O2">
-        <v>0.9636471605357216</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9636471605357216</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>51.37582332946133</v>
+        <v>0.3012423268701111</v>
       </c>
       <c r="R2">
-        <v>462.382409965152</v>
+        <v>2.711180941831</v>
       </c>
       <c r="S2">
-        <v>0.1694550362640246</v>
+        <v>0.7981118653323431</v>
       </c>
       <c r="T2">
-        <v>0.1694550362640246</v>
+        <v>0.7981118653323431</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.926847333333333</v>
+        <v>1.670070333333333</v>
       </c>
       <c r="H3">
-        <v>5.780542</v>
+        <v>5.010211</v>
       </c>
       <c r="I3">
-        <v>0.1758475956799574</v>
+        <v>0.201888134667657</v>
       </c>
       <c r="J3">
-        <v>0.1758475956799574</v>
+        <v>0.201888134667657</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,456 +617,22 @@
         <v>0.136883</v>
       </c>
       <c r="O3">
-        <v>0.001649053773732518</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.001649053773732518</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.08791754784288888</v>
+        <v>0.07620141247922223</v>
       </c>
       <c r="R3">
-        <v>0.791257930586</v>
+        <v>0.685812712313</v>
       </c>
       <c r="S3">
-        <v>0.0002899821412578238</v>
+        <v>0.201888134667657</v>
       </c>
       <c r="T3">
-        <v>0.0002899821412578238</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>1.926847333333333</v>
-      </c>
-      <c r="H4">
-        <v>5.780542</v>
-      </c>
-      <c r="I4">
-        <v>0.1758475956799574</v>
-      </c>
-      <c r="J4">
-        <v>0.1758475956799574</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M4">
-        <v>0.960219</v>
-      </c>
-      <c r="N4">
-        <v>2.880657</v>
-      </c>
-      <c r="O4">
-        <v>0.03470378569054589</v>
-      </c>
-      <c r="P4">
-        <v>0.03470378569054589</v>
-      </c>
-      <c r="Q4">
-        <v>1.850195419566</v>
-      </c>
-      <c r="R4">
-        <v>16.651758776094</v>
-      </c>
-      <c r="S4">
-        <v>0.006102577274675007</v>
-      </c>
-      <c r="T4">
-        <v>0.006102577274675007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>6.602185666666666</v>
-      </c>
-      <c r="H5">
-        <v>19.806557</v>
-      </c>
-      <c r="I5">
-        <v>0.6025274839535862</v>
-      </c>
-      <c r="J5">
-        <v>0.6025274839535861</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>26.663152</v>
-      </c>
-      <c r="N5">
-        <v>79.989456</v>
-      </c>
-      <c r="O5">
-        <v>0.9636471605357216</v>
-      </c>
-      <c r="P5">
-        <v>0.9636471605357216</v>
-      </c>
-      <c r="Q5">
-        <v>176.0350799625546</v>
-      </c>
-      <c r="R5">
-        <v>1584.315719662992</v>
-      </c>
-      <c r="S5">
-        <v>0.5806238990566059</v>
-      </c>
-      <c r="T5">
-        <v>0.5806238990566058</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>6.602185666666666</v>
-      </c>
-      <c r="H6">
-        <v>19.806557</v>
-      </c>
-      <c r="I6">
-        <v>0.6025274839535862</v>
-      </c>
-      <c r="J6">
-        <v>0.6025274839535861</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.04562766666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.136883</v>
-      </c>
-      <c r="O6">
-        <v>0.001649053773732518</v>
-      </c>
-      <c r="P6">
-        <v>0.001649053773732518</v>
-      </c>
-      <c r="Q6">
-        <v>0.3012423268701111</v>
-      </c>
-      <c r="R6">
-        <v>2.711180941831</v>
-      </c>
-      <c r="S6">
-        <v>0.0009936002211912206</v>
-      </c>
-      <c r="T6">
-        <v>0.0009936002211912202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>6.602185666666666</v>
-      </c>
-      <c r="H7">
-        <v>19.806557</v>
-      </c>
-      <c r="I7">
-        <v>0.6025274839535862</v>
-      </c>
-      <c r="J7">
-        <v>0.6025274839535861</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.960219</v>
-      </c>
-      <c r="N7">
-        <v>2.880657</v>
-      </c>
-      <c r="O7">
-        <v>0.03470378569054589</v>
-      </c>
-      <c r="P7">
-        <v>0.03470378569054589</v>
-      </c>
-      <c r="Q7">
-        <v>6.339544118661</v>
-      </c>
-      <c r="R7">
-        <v>57.055897067949</v>
-      </c>
-      <c r="S7">
-        <v>0.02090998467578909</v>
-      </c>
-      <c r="T7">
-        <v>0.02090998467578908</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>2.428451666666667</v>
-      </c>
-      <c r="H8">
-        <v>7.285355</v>
-      </c>
-      <c r="I8">
-        <v>0.2216249203664564</v>
-      </c>
-      <c r="J8">
-        <v>0.2216249203664564</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>26.663152</v>
-      </c>
-      <c r="N8">
-        <v>79.989456</v>
-      </c>
-      <c r="O8">
-        <v>0.9636471605357216</v>
-      </c>
-      <c r="P8">
-        <v>0.9636471605357216</v>
-      </c>
-      <c r="Q8">
-        <v>64.75017591298666</v>
-      </c>
-      <c r="R8">
-        <v>582.75158321688</v>
-      </c>
-      <c r="S8">
-        <v>0.2135682252150911</v>
-      </c>
-      <c r="T8">
-        <v>0.2135682252150911</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.428451666666667</v>
-      </c>
-      <c r="H9">
-        <v>7.285355</v>
-      </c>
-      <c r="I9">
-        <v>0.2216249203664564</v>
-      </c>
-      <c r="J9">
-        <v>0.2216249203664564</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.04562766666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.136883</v>
-      </c>
-      <c r="O9">
-        <v>0.001649053773732518</v>
-      </c>
-      <c r="P9">
-        <v>0.001649053773732518</v>
-      </c>
-      <c r="Q9">
-        <v>0.1108045831627778</v>
-      </c>
-      <c r="R9">
-        <v>0.9972412484650001</v>
-      </c>
-      <c r="S9">
-        <v>0.0003654714112834736</v>
-      </c>
-      <c r="T9">
-        <v>0.0003654714112834736</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2.428451666666667</v>
-      </c>
-      <c r="H10">
-        <v>7.285355</v>
-      </c>
-      <c r="I10">
-        <v>0.2216249203664564</v>
-      </c>
-      <c r="J10">
-        <v>0.2216249203664564</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.960219</v>
-      </c>
-      <c r="N10">
-        <v>2.880657</v>
-      </c>
-      <c r="O10">
-        <v>0.03470378569054589</v>
-      </c>
-      <c r="P10">
-        <v>0.03470378569054589</v>
-      </c>
-      <c r="Q10">
-        <v>2.331845430915</v>
-      </c>
-      <c r="R10">
-        <v>20.986608878235</v>
-      </c>
-      <c r="S10">
-        <v>0.007691223740081801</v>
-      </c>
-      <c r="T10">
-        <v>0.007691223740081801</v>
+        <v>0.201888134667657</v>
       </c>
     </row>
   </sheetData>
